--- a/public/speaker_sample.xlsx
+++ b/public/speaker_sample.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>First Name</t>
   </si>
@@ -26,22 +26,19 @@
     <t>Designation</t>
   </si>
   <si>
+    <t>Company</t>
+  </si>
+  <si>
     <t>Email Address</t>
   </si>
   <si>
-    <t>Speaker Info</t>
+    <t>Speaker Bio</t>
   </si>
   <si>
     <t>Phone No</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Rating Status</t>
-  </si>
-  <si>
-    <t>Profile Picture</t>
+    <t>Rating</t>
   </si>
   <si>
     <t>test</t>
@@ -50,10 +47,7 @@
     <t>test@test.com</t>
   </si>
   <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>http://www.fpcbp.com/wp-content/gallery/tkGallery/apples-burn-fat-400x400.jpg</t>
+    <t>active / deactive</t>
   </si>
 </sst>
 </file>
@@ -161,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -197,43 +191,36 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>12345667890</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1234567890</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="test@test.com"/>
-    <hyperlink ref="I2" r:id="rId2" display="http://www.fpcbp.com/wp-content/gallery/tkGallery/apples-burn-fat-400x400.jpg"/>
+    <hyperlink ref="E2" r:id="rId1" display="test@test.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/public/speaker_sample.xlsx
+++ b/public/speaker_sample.xlsx
@@ -47,7 +47,7 @@
     <t>test@test.com</t>
   </si>
   <si>
-    <t>active / deactive</t>
+    <t>active</t>
   </si>
 </sst>
 </file>
